--- a/po_analysis_by_asin/B0CYK4DQD7_po_data.xlsx
+++ b/po_analysis_by_asin/B0CYK4DQD7_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45383</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>116</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45390</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>34</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45397</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>8</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45404</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>36</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45411</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>4</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45418</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>146</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45425</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>14</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45432</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>110</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45439</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>10</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45446</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>2</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45453</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>130</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45460</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>6</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45467</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>42</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45474</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>28</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45481</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>128</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45488</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>2</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45495</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B18" t="n">
         <v>332</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45502</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B19" t="n">
         <v>2</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45509</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B20" t="n">
         <v>2</v>
@@ -604,7 +604,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45516</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B21" t="n">
         <v>2</v>
@@ -612,7 +612,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45523</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B22" t="n">
         <v>4</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45530</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B23" t="n">
         <v>340</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45565</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B24" t="n">
         <v>6</v>
@@ -636,7 +636,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45572</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B25" t="n">
         <v>66</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45579</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B26" t="n">
         <v>2</v>
@@ -652,7 +652,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45600</v>
+        <v>45606.99999999999</v>
       </c>
       <c r="B27" t="n">
         <v>38</v>
@@ -660,7 +660,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45607</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B28" t="n">
         <v>180</v>
@@ -668,7 +668,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45614</v>
+        <v>45620.99999999999</v>
       </c>
       <c r="B29" t="n">
         <v>20</v>
@@ -676,7 +676,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45621</v>
+        <v>45627.99999999999</v>
       </c>
       <c r="B30" t="n">
         <v>62</v>
@@ -684,7 +684,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45628</v>
+        <v>45634.99999999999</v>
       </c>
       <c r="B31" t="n">
         <v>16</v>
@@ -692,7 +692,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45635</v>
+        <v>45641.99999999999</v>
       </c>
       <c r="B32" t="n">
         <v>66</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45383</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>194</v>
@@ -739,7 +739,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45413</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>284</v>
@@ -747,7 +747,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45444</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>180</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45474</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>492</v>
@@ -763,7 +763,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45505</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>348</v>
@@ -771,7 +771,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45566</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>74</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45597</v>
+        <v>45626.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>300</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45627</v>
+        <v>45657.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>82</v>

--- a/po_analysis_by_asin/B0CYK4DQD7_po_data.xlsx
+++ b/po_analysis_by_asin/B0CYK4DQD7_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -725,7 +726,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -791,6 +792,593 @@
       </c>
       <c r="B9" t="n">
         <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>59</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-44.44967783979528</v>
+      </c>
+      <c r="D2" t="n">
+        <v>167.9470193144836</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>60</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-51.08012032099543</v>
+      </c>
+      <c r="D3" t="n">
+        <v>172.5043106071817</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>60</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-59.71832749387451</v>
+      </c>
+      <c r="D4" t="n">
+        <v>173.9362087666918</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>60</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-55.87343863609873</v>
+      </c>
+      <c r="D5" t="n">
+        <v>173.4923630946206</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>60</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-55.41673956397967</v>
+      </c>
+      <c r="D6" t="n">
+        <v>173.7389176877349</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>61</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-43.6413660606327</v>
+      </c>
+      <c r="D7" t="n">
+        <v>177.4904579356019</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>61</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-42.65928442242895</v>
+      </c>
+      <c r="D8" t="n">
+        <v>167.2477957495742</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>61</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-54.9895491999991</v>
+      </c>
+      <c r="D9" t="n">
+        <v>170.6493389902022</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>61</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-52.59389791907213</v>
+      </c>
+      <c r="D10" t="n">
+        <v>166.7940210216497</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>61</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-46.49175250478561</v>
+      </c>
+      <c r="D11" t="n">
+        <v>163.8513673536992</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>62</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-54.5073009215438</v>
+      </c>
+      <c r="D12" t="n">
+        <v>179.5223813679918</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>62</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-51.89812795714681</v>
+      </c>
+      <c r="D13" t="n">
+        <v>167.4499926266766</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>62</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-49.98822424468141</v>
+      </c>
+      <c r="D14" t="n">
+        <v>174.5396328595442</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>62</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-45.20979875988159</v>
+      </c>
+      <c r="D15" t="n">
+        <v>178.2225860524472</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>63</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-53.54288427415901</v>
+      </c>
+      <c r="D16" t="n">
+        <v>175.3035008310999</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>63</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-44.1289494554</v>
+      </c>
+      <c r="D17" t="n">
+        <v>185.2617533061213</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>63</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-47.02459564306704</v>
+      </c>
+      <c r="D18" t="n">
+        <v>181.3452051746392</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>63</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-48.48097108541676</v>
+      </c>
+      <c r="D19" t="n">
+        <v>178.9000421259577</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>63</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-50.79077697361235</v>
+      </c>
+      <c r="D20" t="n">
+        <v>170.1844913544595</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>64</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-50.57811785219108</v>
+      </c>
+      <c r="D21" t="n">
+        <v>183.3697555759855</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>64</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-53.60452573837925</v>
+      </c>
+      <c r="D22" t="n">
+        <v>179.1574771931968</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>64</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-48.2677292921198</v>
+      </c>
+      <c r="D23" t="n">
+        <v>175.5048637322905</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>65</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-46.08669165559618</v>
+      </c>
+      <c r="D24" t="n">
+        <v>170.9225537191958</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>66</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-46.36547736957442</v>
+      </c>
+      <c r="D25" t="n">
+        <v>176.7035621448274</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>66</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-40.73406853691953</v>
+      </c>
+      <c r="D26" t="n">
+        <v>172.1690761991554</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>66</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-48.32186878909408</v>
+      </c>
+      <c r="D27" t="n">
+        <v>173.1479675667509</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>67</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-47.22924310069542</v>
+      </c>
+      <c r="D28" t="n">
+        <v>180.267166366457</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>67</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-47.19759372068311</v>
+      </c>
+      <c r="D29" t="n">
+        <v>184.9119848835122</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>67</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-47.10551211782278</v>
+      </c>
+      <c r="D30" t="n">
+        <v>172.3438260318052</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>67</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-49.32748982426994</v>
+      </c>
+      <c r="D31" t="n">
+        <v>181.1089250232354</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>68</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-49.31567159947596</v>
+      </c>
+      <c r="D32" t="n">
+        <v>182.529928116671</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>68</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-46.73163403028917</v>
+      </c>
+      <c r="D33" t="n">
+        <v>175.7505482252068</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>68</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-41.72391015590549</v>
+      </c>
+      <c r="D34" t="n">
+        <v>183.8593638430806</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>68</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-37.35975068610952</v>
+      </c>
+      <c r="D35" t="n">
+        <v>181.8294974001026</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>68</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-37.84546035434995</v>
+      </c>
+      <c r="D36" t="n">
+        <v>173.8157977740092</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>69</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-36.93226911486622</v>
+      </c>
+      <c r="D37" t="n">
+        <v>179.8096396754676</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45683.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>69</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-44.58494590714573</v>
+      </c>
+      <c r="D38" t="n">
+        <v>182.3095754989001</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45690.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>69</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-33.91870549064905</v>
+      </c>
+      <c r="D39" t="n">
+        <v>190.1240938980883</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45697.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>69</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-41.08600714248907</v>
+      </c>
+      <c r="D40" t="n">
+        <v>182.1676380252661</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CYK4DQD7_po_data.xlsx
+++ b/po_analysis_by_asin/B0CYK4DQD7_po_data.xlsx
@@ -805,7 +805,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -824,16 +824,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -842,12 +832,6 @@
       <c r="B2" t="n">
         <v>59</v>
       </c>
-      <c r="C2" t="n">
-        <v>-44.44967783979528</v>
-      </c>
-      <c r="D2" t="n">
-        <v>167.9470193144836</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -856,12 +840,6 @@
       <c r="B3" t="n">
         <v>60</v>
       </c>
-      <c r="C3" t="n">
-        <v>-51.08012032099543</v>
-      </c>
-      <c r="D3" t="n">
-        <v>172.5043106071817</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -870,12 +848,6 @@
       <c r="B4" t="n">
         <v>60</v>
       </c>
-      <c r="C4" t="n">
-        <v>-59.71832749387451</v>
-      </c>
-      <c r="D4" t="n">
-        <v>173.9362087666918</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -884,12 +856,6 @@
       <c r="B5" t="n">
         <v>60</v>
       </c>
-      <c r="C5" t="n">
-        <v>-55.87343863609873</v>
-      </c>
-      <c r="D5" t="n">
-        <v>173.4923630946206</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -898,12 +864,6 @@
       <c r="B6" t="n">
         <v>60</v>
       </c>
-      <c r="C6" t="n">
-        <v>-55.41673956397967</v>
-      </c>
-      <c r="D6" t="n">
-        <v>173.7389176877349</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -912,12 +872,6 @@
       <c r="B7" t="n">
         <v>61</v>
       </c>
-      <c r="C7" t="n">
-        <v>-43.6413660606327</v>
-      </c>
-      <c r="D7" t="n">
-        <v>177.4904579356019</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -926,12 +880,6 @@
       <c r="B8" t="n">
         <v>61</v>
       </c>
-      <c r="C8" t="n">
-        <v>-42.65928442242895</v>
-      </c>
-      <c r="D8" t="n">
-        <v>167.2477957495742</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -940,12 +888,6 @@
       <c r="B9" t="n">
         <v>61</v>
       </c>
-      <c r="C9" t="n">
-        <v>-54.9895491999991</v>
-      </c>
-      <c r="D9" t="n">
-        <v>170.6493389902022</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -954,12 +896,6 @@
       <c r="B10" t="n">
         <v>61</v>
       </c>
-      <c r="C10" t="n">
-        <v>-52.59389791907213</v>
-      </c>
-      <c r="D10" t="n">
-        <v>166.7940210216497</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -968,12 +904,6 @@
       <c r="B11" t="n">
         <v>61</v>
       </c>
-      <c r="C11" t="n">
-        <v>-46.49175250478561</v>
-      </c>
-      <c r="D11" t="n">
-        <v>163.8513673536992</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -982,12 +912,6 @@
       <c r="B12" t="n">
         <v>62</v>
       </c>
-      <c r="C12" t="n">
-        <v>-54.5073009215438</v>
-      </c>
-      <c r="D12" t="n">
-        <v>179.5223813679918</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -996,12 +920,6 @@
       <c r="B13" t="n">
         <v>62</v>
       </c>
-      <c r="C13" t="n">
-        <v>-51.89812795714681</v>
-      </c>
-      <c r="D13" t="n">
-        <v>167.4499926266766</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1010,12 +928,6 @@
       <c r="B14" t="n">
         <v>62</v>
       </c>
-      <c r="C14" t="n">
-        <v>-49.98822424468141</v>
-      </c>
-      <c r="D14" t="n">
-        <v>174.5396328595442</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1024,12 +936,6 @@
       <c r="B15" t="n">
         <v>62</v>
       </c>
-      <c r="C15" t="n">
-        <v>-45.20979875988159</v>
-      </c>
-      <c r="D15" t="n">
-        <v>178.2225860524472</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1038,12 +944,6 @@
       <c r="B16" t="n">
         <v>63</v>
       </c>
-      <c r="C16" t="n">
-        <v>-53.54288427415901</v>
-      </c>
-      <c r="D16" t="n">
-        <v>175.3035008310999</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1052,12 +952,6 @@
       <c r="B17" t="n">
         <v>63</v>
       </c>
-      <c r="C17" t="n">
-        <v>-44.1289494554</v>
-      </c>
-      <c r="D17" t="n">
-        <v>185.2617533061213</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1066,12 +960,6 @@
       <c r="B18" t="n">
         <v>63</v>
       </c>
-      <c r="C18" t="n">
-        <v>-47.02459564306704</v>
-      </c>
-      <c r="D18" t="n">
-        <v>181.3452051746392</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1080,12 +968,6 @@
       <c r="B19" t="n">
         <v>63</v>
       </c>
-      <c r="C19" t="n">
-        <v>-48.48097108541676</v>
-      </c>
-      <c r="D19" t="n">
-        <v>178.9000421259577</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1094,12 +976,6 @@
       <c r="B20" t="n">
         <v>63</v>
       </c>
-      <c r="C20" t="n">
-        <v>-50.79077697361235</v>
-      </c>
-      <c r="D20" t="n">
-        <v>170.1844913544595</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1108,12 +984,6 @@
       <c r="B21" t="n">
         <v>64</v>
       </c>
-      <c r="C21" t="n">
-        <v>-50.57811785219108</v>
-      </c>
-      <c r="D21" t="n">
-        <v>183.3697555759855</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1122,12 +992,6 @@
       <c r="B22" t="n">
         <v>64</v>
       </c>
-      <c r="C22" t="n">
-        <v>-53.60452573837925</v>
-      </c>
-      <c r="D22" t="n">
-        <v>179.1574771931968</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1136,12 +1000,6 @@
       <c r="B23" t="n">
         <v>64</v>
       </c>
-      <c r="C23" t="n">
-        <v>-48.2677292921198</v>
-      </c>
-      <c r="D23" t="n">
-        <v>175.5048637322905</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1150,12 +1008,6 @@
       <c r="B24" t="n">
         <v>65</v>
       </c>
-      <c r="C24" t="n">
-        <v>-46.08669165559618</v>
-      </c>
-      <c r="D24" t="n">
-        <v>170.9225537191958</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1164,12 +1016,6 @@
       <c r="B25" t="n">
         <v>66</v>
       </c>
-      <c r="C25" t="n">
-        <v>-46.36547736957442</v>
-      </c>
-      <c r="D25" t="n">
-        <v>176.7035621448274</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1178,12 +1024,6 @@
       <c r="B26" t="n">
         <v>66</v>
       </c>
-      <c r="C26" t="n">
-        <v>-40.73406853691953</v>
-      </c>
-      <c r="D26" t="n">
-        <v>172.1690761991554</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1192,12 +1032,6 @@
       <c r="B27" t="n">
         <v>66</v>
       </c>
-      <c r="C27" t="n">
-        <v>-48.32186878909408</v>
-      </c>
-      <c r="D27" t="n">
-        <v>173.1479675667509</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1206,12 +1040,6 @@
       <c r="B28" t="n">
         <v>67</v>
       </c>
-      <c r="C28" t="n">
-        <v>-47.22924310069542</v>
-      </c>
-      <c r="D28" t="n">
-        <v>180.267166366457</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1220,12 +1048,6 @@
       <c r="B29" t="n">
         <v>67</v>
       </c>
-      <c r="C29" t="n">
-        <v>-47.19759372068311</v>
-      </c>
-      <c r="D29" t="n">
-        <v>184.9119848835122</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1234,12 +1056,6 @@
       <c r="B30" t="n">
         <v>67</v>
       </c>
-      <c r="C30" t="n">
-        <v>-47.10551211782278</v>
-      </c>
-      <c r="D30" t="n">
-        <v>172.3438260318052</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1248,12 +1064,6 @@
       <c r="B31" t="n">
         <v>67</v>
       </c>
-      <c r="C31" t="n">
-        <v>-49.32748982426994</v>
-      </c>
-      <c r="D31" t="n">
-        <v>181.1089250232354</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1262,12 +1072,6 @@
       <c r="B32" t="n">
         <v>68</v>
       </c>
-      <c r="C32" t="n">
-        <v>-49.31567159947596</v>
-      </c>
-      <c r="D32" t="n">
-        <v>182.529928116671</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1276,12 +1080,6 @@
       <c r="B33" t="n">
         <v>68</v>
       </c>
-      <c r="C33" t="n">
-        <v>-46.73163403028917</v>
-      </c>
-      <c r="D33" t="n">
-        <v>175.7505482252068</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1290,12 +1088,6 @@
       <c r="B34" t="n">
         <v>68</v>
       </c>
-      <c r="C34" t="n">
-        <v>-41.72391015590549</v>
-      </c>
-      <c r="D34" t="n">
-        <v>183.8593638430806</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1304,12 +1096,6 @@
       <c r="B35" t="n">
         <v>68</v>
       </c>
-      <c r="C35" t="n">
-        <v>-37.35975068610952</v>
-      </c>
-      <c r="D35" t="n">
-        <v>181.8294974001026</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1318,12 +1104,6 @@
       <c r="B36" t="n">
         <v>68</v>
       </c>
-      <c r="C36" t="n">
-        <v>-37.84546035434995</v>
-      </c>
-      <c r="D36" t="n">
-        <v>173.8157977740092</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1332,12 +1112,6 @@
       <c r="B37" t="n">
         <v>69</v>
       </c>
-      <c r="C37" t="n">
-        <v>-36.93226911486622</v>
-      </c>
-      <c r="D37" t="n">
-        <v>179.8096396754676</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1346,12 +1120,6 @@
       <c r="B38" t="n">
         <v>69</v>
       </c>
-      <c r="C38" t="n">
-        <v>-44.58494590714573</v>
-      </c>
-      <c r="D38" t="n">
-        <v>182.3095754989001</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1360,12 +1128,6 @@
       <c r="B39" t="n">
         <v>69</v>
       </c>
-      <c r="C39" t="n">
-        <v>-33.91870549064905</v>
-      </c>
-      <c r="D39" t="n">
-        <v>190.1240938980883</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1373,12 +1135,6 @@
       </c>
       <c r="B40" t="n">
         <v>69</v>
-      </c>
-      <c r="C40" t="n">
-        <v>-41.08600714248907</v>
-      </c>
-      <c r="D40" t="n">
-        <v>182.1676380252661</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CYK4DQD7_po_data.xlsx
+++ b/po_analysis_by_asin/B0CYK4DQD7_po_data.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -699,6 +699,30 @@
         <v>66</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -710,7 +734,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -794,6 +818,14 @@
         <v>82</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45688.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -805,7 +837,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -830,7 +862,7 @@
         <v>45389.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
@@ -838,7 +870,7 @@
         <v>45396.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -846,7 +878,7 @@
         <v>45403.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -854,7 +886,7 @@
         <v>45410.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6">
@@ -862,7 +894,7 @@
         <v>45417.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7">
@@ -870,7 +902,7 @@
         <v>45424.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
@@ -878,7 +910,7 @@
         <v>45431.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9">
@@ -886,7 +918,7 @@
         <v>45438.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
@@ -894,7 +926,7 @@
         <v>45445.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11">
@@ -902,7 +934,7 @@
         <v>45452.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12">
@@ -942,7 +974,7 @@
         <v>45487.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17">
@@ -950,7 +982,7 @@
         <v>45494.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18">
@@ -958,7 +990,7 @@
         <v>45501.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +998,7 @@
         <v>45508.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20">
@@ -974,7 +1006,7 @@
         <v>45515.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21">
@@ -982,7 +1014,7 @@
         <v>45522.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22">
@@ -990,7 +1022,7 @@
         <v>45529.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23">
@@ -998,7 +1030,7 @@
         <v>45536.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24">
@@ -1006,7 +1038,7 @@
         <v>45571.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25">
@@ -1014,7 +1046,7 @@
         <v>45578.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26">
@@ -1022,7 +1054,7 @@
         <v>45585.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27">
@@ -1030,7 +1062,7 @@
         <v>45606.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28">
@@ -1038,7 +1070,7 @@
         <v>45613.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29">
@@ -1046,7 +1078,7 @@
         <v>45620.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30">
@@ -1054,7 +1086,7 @@
         <v>45627.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31">
@@ -1062,7 +1094,7 @@
         <v>45634.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32">
@@ -1070,71 +1102,95 @@
         <v>45641.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45648.99999999999</v>
+        <v>45662.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45655.99999999999</v>
+        <v>45669.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45662.99999999999</v>
+        <v>45676.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45669.99999999999</v>
+        <v>45683.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45676.99999999999</v>
+        <v>45690.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45683.99999999999</v>
+        <v>45697.99999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45690.99999999999</v>
+        <v>45704.99999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45697.99999999999</v>
+        <v>45711.99999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>69</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45718.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45725.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45732.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
